--- a/402-préparation-release-concertation-220-ballot/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/402-préparation-release-concertation-220-ballot/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.2.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-18T09:03:55+00:00</t>
+    <t>2025-12-18T10:47:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/402-préparation-release-concertation-220-ballot/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/402-préparation-release-concertation-220-ballot/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7359" uniqueCount="870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7359" uniqueCount="868">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-18T10:47:46+00:00</t>
+    <t>2025-12-18T16:17:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-ins</t>
+    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-ins|2.1.0</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -449,7 +449,7 @@
     <t>Patient.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
+    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -478,7 +478,7 @@
     <t>fr-canonical</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient</t>
+    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient|2.1.0</t>
   </si>
   <si>
     <t>Patient.meta.security</t>
@@ -503,7 +503,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -527,7 +527,7 @@
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
   </si>
   <si>
     <t>Meta.tag</t>
@@ -570,7 +570,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -649,7 +649,7 @@
     <t>nationality</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-nationality}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-nationality|2.1.0}
 </t>
   </si>
   <si>
@@ -669,7 +669,7 @@
     <t>identityReliability</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-identity-reliability}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-identity-reliability|2.1.0}
 </t>
   </si>
   <si>
@@ -685,7 +685,7 @@
     <t>deathPlace</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-death-place}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-death-place|2.1.0}
 </t>
   </si>
   <si>
@@ -701,7 +701,7 @@
     <t>birthdateUpdateIndicator</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-birthdate-update-indicator}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-birthdate-update-indicator|2.1.0}
 </t>
   </si>
   <si>
@@ -714,7 +714,7 @@
     <t>birthPlace</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {patient-birthPlace}
+    <t xml:space="preserve">Extension {patient-birthPlace|5.2.0}
 </t>
   </si>
   <si>
@@ -763,7 +763,7 @@
     <t>Patient.extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Address {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address}
+    <t xml:space="preserve">Address {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address|2.1.0}
 </t>
   </si>
   <si>
@@ -803,7 +803,7 @@
     <t>inseeCode</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address-insee-code}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address-insee-code|2.1.0}
 </t>
   </si>
   <si>
@@ -1250,7 +1250,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -1346,7 +1346,7 @@
     <t>Patient.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1778,9 +1778,6 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
-  </si>
-  <si>
     <t>Patient.identifier:InitialNumberMDPH.system</t>
   </si>
   <si>
@@ -1791,10 +1788,6 @@
   </si>
   <si>
     <t>Patient.identifier:InitialNumberMDPH.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization|4.0.1)
-</t>
   </si>
   <si>
     <t>Patient.active</t>
@@ -1831,7 +1824,7 @@
     <t>Patient.name</t>
   </si>
   <si>
-    <t xml:space="preserve">HumanName {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-human-name}
+    <t xml:space="preserve">HumanName {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-human-name|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -2084,7 +2077,7 @@
     <t>birth-list-given-name</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-birth-list-given-name}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-birth-list-given-name|2.1.0}
 </t>
   </si>
   <si>
@@ -2133,7 +2126,7 @@
     <t>Patient.telecom</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point}
+    <t xml:space="preserve">ContactPoint {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point|2.1.0}
 </t>
   </si>
   <si>
@@ -2174,7 +2167,7 @@
     <t>Needed for identification of the individual, in combination with (at least) name and birth date.</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-patient-gender-INS</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-patient-gender-INS|2.1.0</t>
   </si>
   <si>
     <t>sexe</t>
@@ -2266,7 +2259,7 @@
     <t>Most, if not all systems capture it.</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-marital-status</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-marital-status|2.1.0</t>
   </si>
   <si>
     <t>player[classCode=PSN]/maritalStatusCode</t>
@@ -2369,7 +2362,7 @@
     <t>contactIdentifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-contact-identifier}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-contact-identifier|2.1.0}
 </t>
   </si>
   <si>
@@ -2385,7 +2378,7 @@
     <t>comment</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-comment}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-comment|2.1.0}
 </t>
   </si>
   <si>
@@ -2427,7 +2420,7 @@
     <t>The nature of the relationship between a patient and a contact person for that patient.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/patient-contactrelationship</t>
+    <t>http://hl7.org/fhir/ValueSet/patient-contactrelationship|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">value:coding.system}
@@ -2449,7 +2442,7 @@
     <t>The nature of the relationship. Rôle de la personne. Ex : personne de confiance, aidant ...</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-patient-contact-role</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-patient-contact-role|2.1.0</t>
   </si>
   <si>
     <t>Patient.contact.relationship:RelationType</t>
@@ -2461,13 +2454,13 @@
     <t>The nature of the relationship. Relation de la personne. Ex : Mère, époux, enfant ...</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-relation-type</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-relation-type|2.1.0</t>
   </si>
   <si>
     <t>Patient.contact.name</t>
   </si>
   <si>
-    <t xml:space="preserve">HumanName {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-human-name}
+    <t xml:space="preserve">HumanName {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-human-name|2.1.0}
 </t>
   </si>
   <si>
@@ -2657,7 +2650,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|PractitionerRole)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner|2.1.0|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|2.1.0|PractitionerRole|4.0.1)
 </t>
   </si>
   <si>
@@ -2681,7 +2674,7 @@
     <t>Patient.managingOrganization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|2.1.0)
 </t>
   </si>
   <si>
@@ -2732,7 +2725,7 @@
     <t>Patient.link.other</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(Patient|4.0.1|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>
@@ -3099,7 +3092,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="124.00390625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="137.58984375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3114,7 +3107,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="51.54296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="56.07421875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="64.48046875" customWidth="true" bestFit="true"/>
@@ -18471,7 +18464,7 @@
         <v>394</v>
       </c>
       <c r="Z128" t="s" s="2">
-        <v>554</v>
+        <v>395</v>
       </c>
       <c r="AA128" t="s" s="2">
         <v>82</v>
@@ -18524,7 +18517,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B129" t="s" s="2">
         <v>399</v>
@@ -18646,7 +18639,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B130" t="s" s="2">
         <v>410</v>
@@ -18766,7 +18759,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>419</v>
@@ -18884,7 +18877,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B132" t="s" s="2">
         <v>426</v>
@@ -18910,7 +18903,7 @@
         <v>92</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>559</v>
+        <v>427</v>
       </c>
       <c r="L132" t="s" s="2">
         <v>428</v>
@@ -19004,10 +18997,10 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -19030,26 +19023,26 @@
         <v>92</v>
       </c>
       <c r="K133" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="L133" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="M133" t="s" s="2">
         <v>561</v>
       </c>
-      <c r="L133" t="s" s="2">
+      <c r="N133" t="s" s="2">
         <v>562</v>
       </c>
-      <c r="M133" t="s" s="2">
+      <c r="O133" t="s" s="2">
         <v>563</v>
       </c>
-      <c r="N133" t="s" s="2">
+      <c r="P133" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q133" t="s" s="2">
         <v>564</v>
       </c>
-      <c r="O133" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="P133" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q133" t="s" s="2">
-        <v>566</v>
-      </c>
       <c r="R133" t="s" s="2">
         <v>82</v>
       </c>
@@ -19093,7 +19086,7 @@
         <v>82</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>80</v>
@@ -19111,13 +19104,13 @@
         <v>82</v>
       </c>
       <c r="AL133" t="s" s="2">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="AM133" t="s" s="2">
         <v>109</v>
       </c>
       <c r="AN133" t="s" s="2">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="AO133" t="s" s="2">
         <v>82</v>
@@ -19128,10 +19121,10 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -19154,19 +19147,19 @@
         <v>92</v>
       </c>
       <c r="K134" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="L134" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="M134" t="s" s="2">
         <v>570</v>
       </c>
-      <c r="L134" t="s" s="2">
+      <c r="N134" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="M134" t="s" s="2">
+      <c r="O134" t="s" s="2">
         <v>572</v>
-      </c>
-      <c r="N134" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="O134" t="s" s="2">
-        <v>574</v>
       </c>
       <c r="P134" t="s" s="2">
         <v>82</v>
@@ -19203,7 +19196,7 @@
         <v>82</v>
       </c>
       <c r="AB134" t="s" s="2">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="AC134" s="2"/>
       <c r="AD134" t="s" s="2">
@@ -19213,7 +19206,7 @@
         <v>118</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>80</v>
@@ -19231,16 +19224,16 @@
         <v>82</v>
       </c>
       <c r="AL134" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="AM134" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="AN134" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO134" t="s" s="2">
         <v>576</v>
-      </c>
-      <c r="AM134" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="AN134" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO134" t="s" s="2">
-        <v>578</v>
       </c>
       <c r="AP134" t="s" s="2">
         <v>82</v>
@@ -19248,13 +19241,13 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D135" t="s" s="2">
         <v>82</v>
@@ -19276,19 +19269,19 @@
         <v>92</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="O135" t="s" s="2">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="P135" t="s" s="2">
         <v>82</v>
@@ -19337,7 +19330,7 @@
         <v>82</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>80</v>
@@ -19355,16 +19348,16 @@
         <v>82</v>
       </c>
       <c r="AL135" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="AM135" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="AN135" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO135" t="s" s="2">
         <v>576</v>
-      </c>
-      <c r="AM135" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="AN135" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO135" t="s" s="2">
-        <v>578</v>
       </c>
       <c r="AP135" t="s" s="2">
         <v>82</v>
@@ -19372,10 +19365,10 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -19490,10 +19483,10 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -19610,10 +19603,10 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -19639,16 +19632,16 @@
         <v>172</v>
       </c>
       <c r="L138" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="M138" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="N138" t="s" s="2">
         <v>589</v>
       </c>
-      <c r="M138" t="s" s="2">
+      <c r="O138" t="s" s="2">
         <v>590</v>
-      </c>
-      <c r="N138" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="O138" t="s" s="2">
-        <v>592</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>82</v>
@@ -19676,28 +19669,28 @@
         <v>263</v>
       </c>
       <c r="Y138" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="Z138" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="AA138" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB138" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC138" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD138" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE138" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF138" t="s" s="2">
         <v>593</v>
-      </c>
-      <c r="Z138" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="AA138" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB138" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC138" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD138" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE138" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF138" t="s" s="2">
-        <v>595</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>80</v>
@@ -19724,7 +19717,7 @@
         <v>82</v>
       </c>
       <c r="AO138" t="s" s="2">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="AP138" t="s" s="2">
         <v>82</v>
@@ -19732,10 +19725,10 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -19761,13 +19754,13 @@
         <v>105</v>
       </c>
       <c r="L139" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="M139" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="N139" t="s" s="2">
         <v>599</v>
-      </c>
-      <c r="M139" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="N139" t="s" s="2">
-        <v>601</v>
       </c>
       <c r="O139" t="s" s="2">
         <v>284</v>
@@ -19819,7 +19812,7 @@
         <v>82</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>80</v>
@@ -19846,7 +19839,7 @@
         <v>82</v>
       </c>
       <c r="AO139" t="s" s="2">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AP139" t="s" s="2">
         <v>82</v>
@@ -19854,14 +19847,14 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E140" s="2"/>
       <c r="F140" t="s" s="2">
@@ -19883,13 +19876,13 @@
         <v>105</v>
       </c>
       <c r="L140" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="M140" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="N140" t="s" s="2">
         <v>607</v>
-      </c>
-      <c r="M140" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="N140" t="s" s="2">
-        <v>609</v>
       </c>
       <c r="O140" s="2"/>
       <c r="P140" t="s" s="2">
@@ -19939,7 +19932,7 @@
         <v>82</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>80</v>
@@ -19954,19 +19947,19 @@
         <v>103</v>
       </c>
       <c r="AK140" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="AL140" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="AM140" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN140" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO140" t="s" s="2">
         <v>611</v>
-      </c>
-      <c r="AL140" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="AM140" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN140" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO140" t="s" s="2">
-        <v>613</v>
       </c>
       <c r="AP140" t="s" s="2">
         <v>82</v>
@@ -19974,14 +19967,14 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E141" s="2"/>
       <c r="F141" t="s" s="2">
@@ -20003,13 +19996,13 @@
         <v>105</v>
       </c>
       <c r="L141" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="M141" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="N141" t="s" s="2">
         <v>617</v>
-      </c>
-      <c r="M141" t="s" s="2">
-        <v>618</v>
-      </c>
-      <c r="N141" t="s" s="2">
-        <v>619</v>
       </c>
       <c r="O141" s="2"/>
       <c r="P141" t="s" s="2">
@@ -20059,7 +20052,7 @@
         <v>82</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>80</v>
@@ -20074,19 +20067,19 @@
         <v>103</v>
       </c>
       <c r="AK141" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="AL141" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="AM141" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN141" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO141" t="s" s="2">
         <v>621</v>
-      </c>
-      <c r="AL141" t="s" s="2">
-        <v>622</v>
-      </c>
-      <c r="AM141" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN141" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO141" t="s" s="2">
-        <v>623</v>
       </c>
       <c r="AP141" t="s" s="2">
         <v>82</v>
@@ -20094,10 +20087,10 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -20123,10 +20116,10 @@
         <v>105</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="N142" s="2"/>
       <c r="O142" s="2"/>
@@ -20177,7 +20170,7 @@
         <v>82</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>80</v>
@@ -20195,7 +20188,7 @@
         <v>82</v>
       </c>
       <c r="AL142" t="s" s="2">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="AM142" t="s" s="2">
         <v>82</v>
@@ -20204,7 +20197,7 @@
         <v>82</v>
       </c>
       <c r="AO142" t="s" s="2">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="AP142" t="s" s="2">
         <v>82</v>
@@ -20212,10 +20205,10 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -20241,10 +20234,10 @@
         <v>105</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="N143" s="2"/>
       <c r="O143" s="2"/>
@@ -20295,7 +20288,7 @@
         <v>82</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>80</v>
@@ -20313,7 +20306,7 @@
         <v>82</v>
       </c>
       <c r="AL143" t="s" s="2">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="AM143" t="s" s="2">
         <v>82</v>
@@ -20322,7 +20315,7 @@
         <v>82</v>
       </c>
       <c r="AO143" t="s" s="2">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="AP143" t="s" s="2">
         <v>82</v>
@@ -20330,10 +20323,10 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -20359,14 +20352,14 @@
         <v>343</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="N144" s="2"/>
       <c r="O144" t="s" s="2">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="P144" t="s" s="2">
         <v>82</v>
@@ -20415,7 +20408,7 @@
         <v>82</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>80</v>
@@ -20442,7 +20435,7 @@
         <v>82</v>
       </c>
       <c r="AO144" t="s" s="2">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="AP144" t="s" s="2">
         <v>82</v>
@@ -20450,13 +20443,13 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D145" t="s" s="2">
         <v>82</v>
@@ -20478,19 +20471,19 @@
         <v>92</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="O145" t="s" s="2">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="P145" t="s" s="2">
         <v>82</v>
@@ -20539,7 +20532,7 @@
         <v>82</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>80</v>
@@ -20557,16 +20550,16 @@
         <v>82</v>
       </c>
       <c r="AL145" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="AM145" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="AN145" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO145" t="s" s="2">
         <v>576</v>
-      </c>
-      <c r="AM145" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="AN145" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO145" t="s" s="2">
-        <v>578</v>
       </c>
       <c r="AP145" t="s" s="2">
         <v>82</v>
@@ -20574,10 +20567,10 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -20692,10 +20685,10 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -20810,13 +20803,13 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D148" t="s" s="2">
         <v>82</v>
@@ -20838,13 +20831,13 @@
         <v>82</v>
       </c>
       <c r="K148" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="L148" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="M148" t="s" s="2">
         <v>653</v>
-      </c>
-      <c r="L148" t="s" s="2">
-        <v>654</v>
-      </c>
-      <c r="M148" t="s" s="2">
-        <v>655</v>
       </c>
       <c r="N148" s="2"/>
       <c r="O148" s="2"/>
@@ -20910,7 +20903,7 @@
         <v>120</v>
       </c>
       <c r="AK148" t="s" s="2">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="AL148" t="s" s="2">
         <v>82</v>
@@ -20930,10 +20923,10 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -20959,16 +20952,16 @@
         <v>172</v>
       </c>
       <c r="L149" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="M149" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="N149" t="s" s="2">
         <v>589</v>
       </c>
-      <c r="M149" t="s" s="2">
+      <c r="O149" t="s" s="2">
         <v>590</v>
-      </c>
-      <c r="N149" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="O149" t="s" s="2">
-        <v>592</v>
       </c>
       <c r="P149" t="s" s="2">
         <v>82</v>
@@ -20996,28 +20989,28 @@
         <v>263</v>
       </c>
       <c r="Y149" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="Z149" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="AA149" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB149" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC149" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD149" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE149" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF149" t="s" s="2">
         <v>593</v>
-      </c>
-      <c r="Z149" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="AA149" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB149" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC149" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD149" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE149" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF149" t="s" s="2">
-        <v>595</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>80</v>
@@ -21044,7 +21037,7 @@
         <v>82</v>
       </c>
       <c r="AO149" t="s" s="2">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="AP149" t="s" s="2">
         <v>82</v>
@@ -21052,10 +21045,10 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -21081,13 +21074,13 @@
         <v>105</v>
       </c>
       <c r="L150" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="M150" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="N150" t="s" s="2">
         <v>599</v>
-      </c>
-      <c r="M150" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="N150" t="s" s="2">
-        <v>601</v>
       </c>
       <c r="O150" t="s" s="2">
         <v>284</v>
@@ -21139,7 +21132,7 @@
         <v>82</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>80</v>
@@ -21166,7 +21159,7 @@
         <v>82</v>
       </c>
       <c r="AO150" t="s" s="2">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AP150" t="s" s="2">
         <v>82</v>
@@ -21174,14 +21167,14 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E151" s="2"/>
       <c r="F151" t="s" s="2">
@@ -21203,13 +21196,13 @@
         <v>105</v>
       </c>
       <c r="L151" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="M151" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="N151" t="s" s="2">
         <v>607</v>
-      </c>
-      <c r="M151" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="N151" t="s" s="2">
-        <v>609</v>
       </c>
       <c r="O151" s="2"/>
       <c r="P151" t="s" s="2">
@@ -21259,7 +21252,7 @@
         <v>82</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>80</v>
@@ -21274,10 +21267,10 @@
         <v>103</v>
       </c>
       <c r="AK151" t="s" s="2">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="AM151" t="s" s="2">
         <v>82</v>
@@ -21286,7 +21279,7 @@
         <v>82</v>
       </c>
       <c r="AO151" t="s" s="2">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="AP151" t="s" s="2">
         <v>82</v>
@@ -21294,14 +21287,14 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E152" s="2"/>
       <c r="F152" t="s" s="2">
@@ -21323,13 +21316,13 @@
         <v>105</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="N152" t="s" s="2">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="O152" s="2"/>
       <c r="P152" t="s" s="2">
@@ -21379,7 +21372,7 @@
         <v>82</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>80</v>
@@ -21394,10 +21387,10 @@
         <v>103</v>
       </c>
       <c r="AK152" t="s" s="2">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="AL152" t="s" s="2">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="AM152" t="s" s="2">
         <v>82</v>
@@ -21406,7 +21399,7 @@
         <v>82</v>
       </c>
       <c r="AO152" t="s" s="2">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="AP152" t="s" s="2">
         <v>82</v>
@@ -21414,10 +21407,10 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -21443,10 +21436,10 @@
         <v>105</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="N153" s="2"/>
       <c r="O153" s="2"/>
@@ -21497,7 +21490,7 @@
         <v>82</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>80</v>
@@ -21512,10 +21505,10 @@
         <v>103</v>
       </c>
       <c r="AK153" t="s" s="2">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="AL153" t="s" s="2">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="AM153" t="s" s="2">
         <v>82</v>
@@ -21524,7 +21517,7 @@
         <v>82</v>
       </c>
       <c r="AO153" t="s" s="2">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="AP153" t="s" s="2">
         <v>82</v>
@@ -21532,10 +21525,10 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -21561,10 +21554,10 @@
         <v>105</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="N154" s="2"/>
       <c r="O154" s="2"/>
@@ -21615,7 +21608,7 @@
         <v>82</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>80</v>
@@ -21633,7 +21626,7 @@
         <v>82</v>
       </c>
       <c r="AL154" t="s" s="2">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="AM154" t="s" s="2">
         <v>82</v>
@@ -21642,7 +21635,7 @@
         <v>82</v>
       </c>
       <c r="AO154" t="s" s="2">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="AP154" t="s" s="2">
         <v>82</v>
@@ -21650,10 +21643,10 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -21679,14 +21672,14 @@
         <v>343</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="N155" s="2"/>
       <c r="O155" t="s" s="2">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="P155" t="s" s="2">
         <v>82</v>
@@ -21735,7 +21728,7 @@
         <v>82</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>80</v>
@@ -21762,7 +21755,7 @@
         <v>82</v>
       </c>
       <c r="AO155" t="s" s="2">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="AP155" t="s" s="2">
         <v>82</v>
@@ -21770,10 +21763,10 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -21796,19 +21789,19 @@
         <v>82</v>
       </c>
       <c r="K156" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="L156" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="M156" t="s" s="2">
         <v>669</v>
       </c>
-      <c r="L156" t="s" s="2">
+      <c r="N156" t="s" s="2">
         <v>670</v>
       </c>
-      <c r="M156" t="s" s="2">
+      <c r="O156" t="s" s="2">
         <v>671</v>
-      </c>
-      <c r="N156" t="s" s="2">
-        <v>672</v>
-      </c>
-      <c r="O156" t="s" s="2">
-        <v>673</v>
       </c>
       <c r="P156" t="s" s="2">
         <v>82</v>
@@ -21857,7 +21850,7 @@
         <v>82</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>80</v>
@@ -21869,22 +21862,22 @@
         <v>206</v>
       </c>
       <c r="AJ156" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="AK156" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL156" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="AM156" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN156" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO156" t="s" s="2">
         <v>674</v>
-      </c>
-      <c r="AK156" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL156" t="s" s="2">
-        <v>675</v>
-      </c>
-      <c r="AM156" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN156" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO156" t="s" s="2">
-        <v>676</v>
       </c>
       <c r="AP156" t="s" s="2">
         <v>82</v>
@@ -21892,10 +21885,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -21921,16 +21914,16 @@
         <v>172</v>
       </c>
       <c r="L157" t="s" s="2">
+        <v>676</v>
+      </c>
+      <c r="M157" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="N157" t="s" s="2">
         <v>678</v>
       </c>
-      <c r="M157" t="s" s="2">
+      <c r="O157" t="s" s="2">
         <v>679</v>
-      </c>
-      <c r="N157" t="s" s="2">
-        <v>680</v>
-      </c>
-      <c r="O157" t="s" s="2">
-        <v>681</v>
       </c>
       <c r="P157" t="s" s="2">
         <v>82</v>
@@ -21959,7 +21952,7 @@
       </c>
       <c r="Y157" s="2"/>
       <c r="Z157" t="s" s="2">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="AA157" t="s" s="2">
         <v>82</v>
@@ -21977,7 +21970,7 @@
         <v>82</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="AG157" t="s" s="2">
         <v>80</v>
@@ -21992,19 +21985,19 @@
         <v>103</v>
       </c>
       <c r="AK157" t="s" s="2">
+        <v>681</v>
+      </c>
+      <c r="AL157" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="AM157" t="s" s="2">
         <v>683</v>
       </c>
-      <c r="AL157" t="s" s="2">
+      <c r="AN157" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO157" t="s" s="2">
         <v>684</v>
-      </c>
-      <c r="AM157" t="s" s="2">
-        <v>685</v>
-      </c>
-      <c r="AN157" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO157" t="s" s="2">
-        <v>686</v>
       </c>
       <c r="AP157" t="s" s="2">
         <v>82</v>
@@ -22012,10 +22005,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -22038,19 +22031,19 @@
         <v>92</v>
       </c>
       <c r="K158" t="s" s="2">
+        <v>686</v>
+      </c>
+      <c r="L158" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="M158" t="s" s="2">
         <v>688</v>
       </c>
-      <c r="L158" t="s" s="2">
+      <c r="N158" t="s" s="2">
         <v>689</v>
       </c>
-      <c r="M158" t="s" s="2">
+      <c r="O158" t="s" s="2">
         <v>690</v>
-      </c>
-      <c r="N158" t="s" s="2">
-        <v>691</v>
-      </c>
-      <c r="O158" t="s" s="2">
-        <v>692</v>
       </c>
       <c r="P158" t="s" s="2">
         <v>82</v>
@@ -22099,7 +22092,7 @@
         <v>82</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>80</v>
@@ -22114,30 +22107,30 @@
         <v>103</v>
       </c>
       <c r="AK158" t="s" s="2">
+        <v>691</v>
+      </c>
+      <c r="AL158" t="s" s="2">
+        <v>692</v>
+      </c>
+      <c r="AM158" t="s" s="2">
         <v>693</v>
       </c>
-      <c r="AL158" t="s" s="2">
+      <c r="AN158" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO158" t="s" s="2">
         <v>694</v>
       </c>
-      <c r="AM158" t="s" s="2">
+      <c r="AP158" t="s" s="2">
         <v>695</v>
-      </c>
-      <c r="AN158" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO158" t="s" s="2">
-        <v>696</v>
-      </c>
-      <c r="AP158" t="s" s="2">
-        <v>697</v>
       </c>
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -22160,19 +22153,19 @@
         <v>92</v>
       </c>
       <c r="K159" t="s" s="2">
+        <v>697</v>
+      </c>
+      <c r="L159" t="s" s="2">
+        <v>698</v>
+      </c>
+      <c r="M159" t="s" s="2">
         <v>699</v>
       </c>
-      <c r="L159" t="s" s="2">
+      <c r="N159" t="s" s="2">
         <v>700</v>
       </c>
-      <c r="M159" t="s" s="2">
+      <c r="O159" t="s" s="2">
         <v>701</v>
-      </c>
-      <c r="N159" t="s" s="2">
-        <v>702</v>
-      </c>
-      <c r="O159" t="s" s="2">
-        <v>703</v>
       </c>
       <c r="P159" t="s" s="2">
         <v>82</v>
@@ -22221,7 +22214,7 @@
         <v>82</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>80</v>
@@ -22239,7 +22232,7 @@
         <v>82</v>
       </c>
       <c r="AL159" t="s" s="2">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="AM159" t="s" s="2">
         <v>109</v>
@@ -22248,7 +22241,7 @@
         <v>82</v>
       </c>
       <c r="AO159" t="s" s="2">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="AP159" t="s" s="2">
         <v>82</v>
@@ -22256,10 +22249,10 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -22294,7 +22287,7 @@
         <v>242</v>
       </c>
       <c r="O160" t="s" s="2">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="P160" t="s" s="2">
         <v>82</v>
@@ -22343,7 +22336,7 @@
         <v>82</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>80</v>
@@ -22378,10 +22371,10 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -22407,14 +22400,14 @@
         <v>388</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="N161" s="2"/>
       <c r="O161" t="s" s="2">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="P161" t="s" s="2">
         <v>82</v>
@@ -22443,7 +22436,7 @@
       </c>
       <c r="Y161" s="2"/>
       <c r="Z161" t="s" s="2">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="AA161" t="s" s="2">
         <v>82</v>
@@ -22461,7 +22454,7 @@
         <v>82</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="AG161" t="s" s="2">
         <v>80</v>
@@ -22479,16 +22472,16 @@
         <v>82</v>
       </c>
       <c r="AL161" t="s" s="2">
+        <v>711</v>
+      </c>
+      <c r="AM161" t="s" s="2">
+        <v>712</v>
+      </c>
+      <c r="AN161" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO161" t="s" s="2">
         <v>713</v>
-      </c>
-      <c r="AM161" t="s" s="2">
-        <v>714</v>
-      </c>
-      <c r="AN161" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO161" t="s" s="2">
-        <v>715</v>
       </c>
       <c r="AP161" t="s" s="2">
         <v>82</v>
@@ -22496,10 +22489,10 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -22522,19 +22515,19 @@
         <v>82</v>
       </c>
       <c r="K162" t="s" s="2">
+        <v>715</v>
+      </c>
+      <c r="L162" t="s" s="2">
+        <v>716</v>
+      </c>
+      <c r="M162" t="s" s="2">
         <v>717</v>
       </c>
-      <c r="L162" t="s" s="2">
+      <c r="N162" t="s" s="2">
         <v>718</v>
       </c>
-      <c r="M162" t="s" s="2">
+      <c r="O162" t="s" s="2">
         <v>719</v>
-      </c>
-      <c r="N162" t="s" s="2">
-        <v>720</v>
-      </c>
-      <c r="O162" t="s" s="2">
-        <v>721</v>
       </c>
       <c r="P162" t="s" s="2">
         <v>82</v>
@@ -22583,7 +22576,7 @@
         <v>82</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="AG162" t="s" s="2">
         <v>80</v>
@@ -22601,7 +22594,7 @@
         <v>82</v>
       </c>
       <c r="AL162" t="s" s="2">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="AM162" t="s" s="2">
         <v>109</v>
@@ -22610,7 +22603,7 @@
         <v>82</v>
       </c>
       <c r="AO162" t="s" s="2">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="AP162" t="s" s="2">
         <v>82</v>
@@ -22618,10 +22611,10 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -22644,19 +22637,19 @@
         <v>82</v>
       </c>
       <c r="K163" t="s" s="2">
+        <v>723</v>
+      </c>
+      <c r="L163" t="s" s="2">
+        <v>724</v>
+      </c>
+      <c r="M163" t="s" s="2">
         <v>725</v>
       </c>
-      <c r="L163" t="s" s="2">
+      <c r="N163" t="s" s="2">
         <v>726</v>
       </c>
-      <c r="M163" t="s" s="2">
+      <c r="O163" t="s" s="2">
         <v>727</v>
-      </c>
-      <c r="N163" t="s" s="2">
-        <v>728</v>
-      </c>
-      <c r="O163" t="s" s="2">
-        <v>729</v>
       </c>
       <c r="P163" t="s" s="2">
         <v>82</v>
@@ -22705,7 +22698,7 @@
         <v>82</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>80</v>
@@ -22723,7 +22716,7 @@
         <v>82</v>
       </c>
       <c r="AL163" t="s" s="2">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="AM163" t="s" s="2">
         <v>109</v>
@@ -22732,7 +22725,7 @@
         <v>82</v>
       </c>
       <c r="AO163" t="s" s="2">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="AP163" t="s" s="2">
         <v>82</v>
@@ -22740,10 +22733,10 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -22766,19 +22759,19 @@
         <v>82</v>
       </c>
       <c r="K164" t="s" s="2">
+        <v>731</v>
+      </c>
+      <c r="L164" t="s" s="2">
+        <v>732</v>
+      </c>
+      <c r="M164" t="s" s="2">
         <v>733</v>
       </c>
-      <c r="L164" t="s" s="2">
+      <c r="N164" t="s" s="2">
         <v>734</v>
       </c>
-      <c r="M164" t="s" s="2">
+      <c r="O164" t="s" s="2">
         <v>735</v>
-      </c>
-      <c r="N164" t="s" s="2">
-        <v>736</v>
-      </c>
-      <c r="O164" t="s" s="2">
-        <v>737</v>
       </c>
       <c r="P164" t="s" s="2">
         <v>82</v>
@@ -22827,7 +22820,7 @@
         <v>82</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="AG164" t="s" s="2">
         <v>80</v>
@@ -22839,13 +22832,13 @@
         <v>82</v>
       </c>
       <c r="AJ164" t="s" s="2">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="AK164" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL164" t="s" s="2">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="AM164" t="s" s="2">
         <v>109</v>
@@ -22862,10 +22855,10 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -22980,10 +22973,10 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -23096,13 +23089,13 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B167" t="s" s="2">
+        <v>739</v>
+      </c>
+      <c r="C167" t="s" s="2">
         <v>741</v>
-      </c>
-      <c r="C167" t="s" s="2">
-        <v>743</v>
       </c>
       <c r="D167" t="s" s="2">
         <v>82</v>
@@ -23124,13 +23117,13 @@
         <v>82</v>
       </c>
       <c r="K167" t="s" s="2">
+        <v>742</v>
+      </c>
+      <c r="L167" t="s" s="2">
+        <v>743</v>
+      </c>
+      <c r="M167" t="s" s="2">
         <v>744</v>
-      </c>
-      <c r="L167" t="s" s="2">
-        <v>745</v>
-      </c>
-      <c r="M167" t="s" s="2">
-        <v>746</v>
       </c>
       <c r="N167" s="2"/>
       <c r="O167" s="2"/>
@@ -23216,13 +23209,13 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C168" t="s" s="2">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="D168" t="s" s="2">
         <v>82</v>
@@ -23244,13 +23237,13 @@
         <v>82</v>
       </c>
       <c r="K168" t="s" s="2">
+        <v>747</v>
+      </c>
+      <c r="L168" t="s" s="2">
+        <v>748</v>
+      </c>
+      <c r="M168" t="s" s="2">
         <v>749</v>
-      </c>
-      <c r="L168" t="s" s="2">
-        <v>750</v>
-      </c>
-      <c r="M168" t="s" s="2">
-        <v>751</v>
       </c>
       <c r="N168" s="2"/>
       <c r="O168" s="2"/>
@@ -23336,14 +23329,14 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="E169" s="2"/>
       <c r="F169" t="s" s="2">
@@ -23365,10 +23358,10 @@
         <v>112</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="N169" t="s" s="2">
         <v>115</v>
@@ -23423,7 +23416,7 @@
         <v>82</v>
       </c>
       <c r="AF169" t="s" s="2">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="AG169" t="s" s="2">
         <v>80</v>
@@ -23458,10 +23451,10 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -23487,14 +23480,14 @@
         <v>388</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="N170" s="2"/>
       <c r="O170" t="s" s="2">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="P170" t="s" s="2">
         <v>82</v>
@@ -23522,16 +23515,16 @@
         <v>154</v>
       </c>
       <c r="Y170" t="s" s="2">
+        <v>759</v>
+      </c>
+      <c r="Z170" t="s" s="2">
+        <v>760</v>
+      </c>
+      <c r="AA170" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB170" t="s" s="2">
         <v>761</v>
-      </c>
-      <c r="Z170" t="s" s="2">
-        <v>762</v>
-      </c>
-      <c r="AA170" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB170" t="s" s="2">
-        <v>763</v>
       </c>
       <c r="AC170" s="2"/>
       <c r="AD170" t="s" s="2">
@@ -23541,7 +23534,7 @@
         <v>118</v>
       </c>
       <c r="AF170" t="s" s="2">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="AG170" t="s" s="2">
         <v>80</v>
@@ -23559,7 +23552,7 @@
         <v>82</v>
       </c>
       <c r="AL170" t="s" s="2">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="AM170" t="s" s="2">
         <v>109</v>
@@ -23568,7 +23561,7 @@
         <v>82</v>
       </c>
       <c r="AO170" t="s" s="2">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="AP170" t="s" s="2">
         <v>82</v>
@@ -23576,13 +23569,13 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C171" t="s" s="2">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D171" t="s" s="2">
         <v>82</v>
@@ -23607,14 +23600,14 @@
         <v>388</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="N171" s="2"/>
       <c r="O171" t="s" s="2">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="P171" t="s" s="2">
         <v>82</v>
@@ -23643,7 +23636,7 @@
       </c>
       <c r="Y171" s="2"/>
       <c r="Z171" t="s" s="2">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="AA171" t="s" s="2">
         <v>82</v>
@@ -23661,7 +23654,7 @@
         <v>82</v>
       </c>
       <c r="AF171" t="s" s="2">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="AG171" t="s" s="2">
         <v>80</v>
@@ -23679,7 +23672,7 @@
         <v>82</v>
       </c>
       <c r="AL171" t="s" s="2">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="AM171" t="s" s="2">
         <v>109</v>
@@ -23688,7 +23681,7 @@
         <v>82</v>
       </c>
       <c r="AO171" t="s" s="2">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="AP171" t="s" s="2">
         <v>82</v>
@@ -23696,13 +23689,13 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C172" t="s" s="2">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="D172" t="s" s="2">
         <v>82</v>
@@ -23727,14 +23720,14 @@
         <v>388</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="N172" s="2"/>
       <c r="O172" t="s" s="2">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="P172" t="s" s="2">
         <v>82</v>
@@ -23763,7 +23756,7 @@
       </c>
       <c r="Y172" s="2"/>
       <c r="Z172" t="s" s="2">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="AA172" t="s" s="2">
         <v>82</v>
@@ -23781,7 +23774,7 @@
         <v>82</v>
       </c>
       <c r="AF172" t="s" s="2">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="AG172" t="s" s="2">
         <v>80</v>
@@ -23799,7 +23792,7 @@
         <v>82</v>
       </c>
       <c r="AL172" t="s" s="2">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="AM172" t="s" s="2">
         <v>109</v>
@@ -23808,7 +23801,7 @@
         <v>82</v>
       </c>
       <c r="AO172" t="s" s="2">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="AP172" t="s" s="2">
         <v>82</v>
@@ -23816,10 +23809,10 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -23842,19 +23835,19 @@
         <v>82</v>
       </c>
       <c r="K173" t="s" s="2">
+        <v>773</v>
+      </c>
+      <c r="L173" t="s" s="2">
+        <v>774</v>
+      </c>
+      <c r="M173" t="s" s="2">
         <v>775</v>
       </c>
-      <c r="L173" t="s" s="2">
+      <c r="N173" t="s" s="2">
         <v>776</v>
       </c>
-      <c r="M173" t="s" s="2">
+      <c r="O173" t="s" s="2">
         <v>777</v>
-      </c>
-      <c r="N173" t="s" s="2">
-        <v>778</v>
-      </c>
-      <c r="O173" t="s" s="2">
-        <v>779</v>
       </c>
       <c r="P173" t="s" s="2">
         <v>82</v>
@@ -23903,7 +23896,7 @@
         <v>82</v>
       </c>
       <c r="AF173" t="s" s="2">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="AG173" t="s" s="2">
         <v>80</v>
@@ -23921,7 +23914,7 @@
         <v>82</v>
       </c>
       <c r="AL173" t="s" s="2">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="AM173" t="s" s="2">
         <v>82</v>
@@ -23930,7 +23923,7 @@
         <v>82</v>
       </c>
       <c r="AO173" t="s" s="2">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="AP173" t="s" s="2">
         <v>82</v>
@@ -23938,10 +23931,10 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -23964,19 +23957,19 @@
         <v>82</v>
       </c>
       <c r="K174" t="s" s="2">
+        <v>667</v>
+      </c>
+      <c r="L174" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="M174" t="s" s="2">
         <v>669</v>
       </c>
-      <c r="L174" t="s" s="2">
-        <v>670</v>
-      </c>
-      <c r="M174" t="s" s="2">
+      <c r="N174" t="s" s="2">
+        <v>781</v>
+      </c>
+      <c r="O174" t="s" s="2">
         <v>671</v>
-      </c>
-      <c r="N174" t="s" s="2">
-        <v>783</v>
-      </c>
-      <c r="O174" t="s" s="2">
-        <v>673</v>
       </c>
       <c r="P174" t="s" s="2">
         <v>82</v>
@@ -24025,7 +24018,7 @@
         <v>82</v>
       </c>
       <c r="AF174" t="s" s="2">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="AG174" t="s" s="2">
         <v>80</v>
@@ -24037,22 +24030,22 @@
         <v>206</v>
       </c>
       <c r="AJ174" t="s" s="2">
+        <v>672</v>
+      </c>
+      <c r="AK174" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL174" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="AM174" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN174" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO174" t="s" s="2">
         <v>674</v>
-      </c>
-      <c r="AK174" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL174" t="s" s="2">
-        <v>675</v>
-      </c>
-      <c r="AM174" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN174" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO174" t="s" s="2">
-        <v>676</v>
       </c>
       <c r="AP174" t="s" s="2">
         <v>82</v>
@@ -24060,10 +24053,10 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -24086,17 +24079,17 @@
         <v>82</v>
       </c>
       <c r="K175" t="s" s="2">
+        <v>783</v>
+      </c>
+      <c r="L175" t="s" s="2">
+        <v>784</v>
+      </c>
+      <c r="M175" t="s" s="2">
         <v>785</v>
-      </c>
-      <c r="L175" t="s" s="2">
-        <v>786</v>
-      </c>
-      <c r="M175" t="s" s="2">
-        <v>787</v>
       </c>
       <c r="N175" s="2"/>
       <c r="O175" t="s" s="2">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="P175" t="s" s="2">
         <v>82</v>
@@ -24145,7 +24138,7 @@
         <v>82</v>
       </c>
       <c r="AF175" t="s" s="2">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="AG175" t="s" s="2">
         <v>80</v>
@@ -24163,7 +24156,7 @@
         <v>82</v>
       </c>
       <c r="AL175" t="s" s="2">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="AM175" t="s" s="2">
         <v>109</v>
@@ -24172,7 +24165,7 @@
         <v>82</v>
       </c>
       <c r="AO175" t="s" s="2">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="AP175" t="s" s="2">
         <v>82</v>
@@ -24180,10 +24173,10 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -24209,14 +24202,14 @@
         <v>172</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="N176" s="2"/>
       <c r="O176" t="s" s="2">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="P176" t="s" s="2">
         <v>82</v>
@@ -24244,10 +24237,10 @@
         <v>263</v>
       </c>
       <c r="Y176" t="s" s="2">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="Z176" t="s" s="2">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="AA176" t="s" s="2">
         <v>82</v>
@@ -24265,7 +24258,7 @@
         <v>82</v>
       </c>
       <c r="AF176" t="s" s="2">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="AG176" t="s" s="2">
         <v>80</v>
@@ -24283,7 +24276,7 @@
         <v>82</v>
       </c>
       <c r="AL176" t="s" s="2">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="AM176" t="s" s="2">
         <v>109</v>
@@ -24292,7 +24285,7 @@
         <v>82</v>
       </c>
       <c r="AO176" t="s" s="2">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="AP176" t="s" s="2">
         <v>82</v>
@@ -24300,10 +24293,10 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -24329,14 +24322,14 @@
         <v>427</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="N177" s="2"/>
       <c r="O177" t="s" s="2">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="P177" t="s" s="2">
         <v>82</v>
@@ -24385,7 +24378,7 @@
         <v>82</v>
       </c>
       <c r="AF177" t="s" s="2">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="AG177" t="s" s="2">
         <v>80</v>
@@ -24394,7 +24387,7 @@
         <v>91</v>
       </c>
       <c r="AI177" t="s" s="2">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="AJ177" t="s" s="2">
         <v>103</v>
@@ -24403,7 +24396,7 @@
         <v>82</v>
       </c>
       <c r="AL177" t="s" s="2">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="AM177" t="s" s="2">
         <v>109</v>
@@ -24412,7 +24405,7 @@
         <v>82</v>
       </c>
       <c r="AO177" t="s" s="2">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="AP177" t="s" s="2">
         <v>82</v>
@@ -24420,10 +24413,10 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -24449,10 +24442,10 @@
         <v>343</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="N178" s="2"/>
       <c r="O178" s="2"/>
@@ -24503,7 +24496,7 @@
         <v>82</v>
       </c>
       <c r="AF178" t="s" s="2">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="AG178" t="s" s="2">
         <v>80</v>
@@ -24521,7 +24514,7 @@
         <v>82</v>
       </c>
       <c r="AL178" t="s" s="2">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="AM178" t="s" s="2">
         <v>109</v>
@@ -24538,10 +24531,10 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -24564,19 +24557,19 @@
         <v>82</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="L179" t="s" s="2">
+        <v>808</v>
+      </c>
+      <c r="M179" t="s" s="2">
+        <v>809</v>
+      </c>
+      <c r="N179" t="s" s="2">
         <v>810</v>
       </c>
-      <c r="M179" t="s" s="2">
+      <c r="O179" t="s" s="2">
         <v>811</v>
-      </c>
-      <c r="N179" t="s" s="2">
-        <v>812</v>
-      </c>
-      <c r="O179" t="s" s="2">
-        <v>813</v>
       </c>
       <c r="P179" t="s" s="2">
         <v>82</v>
@@ -24625,7 +24618,7 @@
         <v>82</v>
       </c>
       <c r="AF179" t="s" s="2">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="AG179" t="s" s="2">
         <v>80</v>
@@ -24643,10 +24636,10 @@
         <v>82</v>
       </c>
       <c r="AL179" t="s" s="2">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="AM179" t="s" s="2">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="AN179" t="s" s="2">
         <v>82</v>
@@ -24660,10 +24653,10 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -24778,10 +24771,10 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -24898,14 +24891,14 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="E182" s="2"/>
       <c r="F182" t="s" s="2">
@@ -24927,10 +24920,10 @@
         <v>112</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="N182" t="s" s="2">
         <v>115</v>
@@ -24985,7 +24978,7 @@
         <v>82</v>
       </c>
       <c r="AF182" t="s" s="2">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="AG182" t="s" s="2">
         <v>80</v>
@@ -25020,10 +25013,10 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
@@ -25049,16 +25042,16 @@
         <v>388</v>
       </c>
       <c r="L183" t="s" s="2">
+        <v>818</v>
+      </c>
+      <c r="M183" t="s" s="2">
+        <v>819</v>
+      </c>
+      <c r="N183" t="s" s="2">
         <v>820</v>
       </c>
-      <c r="M183" t="s" s="2">
+      <c r="O183" t="s" s="2">
         <v>821</v>
-      </c>
-      <c r="N183" t="s" s="2">
-        <v>822</v>
-      </c>
-      <c r="O183" t="s" s="2">
-        <v>823</v>
       </c>
       <c r="P183" t="s" s="2">
         <v>82</v>
@@ -25107,7 +25100,7 @@
         <v>82</v>
       </c>
       <c r="AF183" t="s" s="2">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="AG183" t="s" s="2">
         <v>91</v>
@@ -25125,16 +25118,16 @@
         <v>82</v>
       </c>
       <c r="AL183" t="s" s="2">
+        <v>822</v>
+      </c>
+      <c r="AM183" t="s" s="2">
+        <v>823</v>
+      </c>
+      <c r="AN183" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO183" t="s" s="2">
         <v>824</v>
-      </c>
-      <c r="AM183" t="s" s="2">
-        <v>825</v>
-      </c>
-      <c r="AN183" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO183" t="s" s="2">
-        <v>826</v>
       </c>
       <c r="AP183" t="s" s="2">
         <v>82</v>
@@ -25142,10 +25135,10 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -25168,19 +25161,19 @@
         <v>82</v>
       </c>
       <c r="K184" t="s" s="2">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="L184" t="s" s="2">
+        <v>826</v>
+      </c>
+      <c r="M184" t="s" s="2">
+        <v>827</v>
+      </c>
+      <c r="N184" t="s" s="2">
         <v>828</v>
       </c>
-      <c r="M184" t="s" s="2">
+      <c r="O184" t="s" s="2">
         <v>829</v>
-      </c>
-      <c r="N184" t="s" s="2">
-        <v>830</v>
-      </c>
-      <c r="O184" t="s" s="2">
-        <v>831</v>
       </c>
       <c r="P184" t="s" s="2">
         <v>82</v>
@@ -25229,7 +25222,7 @@
         <v>82</v>
       </c>
       <c r="AF184" t="s" s="2">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="AG184" t="s" s="2">
         <v>80</v>
@@ -25247,16 +25240,16 @@
         <v>82</v>
       </c>
       <c r="AL184" t="s" s="2">
+        <v>830</v>
+      </c>
+      <c r="AM184" t="s" s="2">
+        <v>831</v>
+      </c>
+      <c r="AN184" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO184" t="s" s="2">
         <v>832</v>
-      </c>
-      <c r="AM184" t="s" s="2">
-        <v>833</v>
-      </c>
-      <c r="AN184" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO184" t="s" s="2">
-        <v>834</v>
       </c>
       <c r="AP184" t="s" s="2">
         <v>82</v>
@@ -25264,14 +25257,14 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="E185" s="2"/>
       <c r="F185" t="s" s="2">
@@ -25290,16 +25283,16 @@
         <v>82</v>
       </c>
       <c r="K185" t="s" s="2">
+        <v>835</v>
+      </c>
+      <c r="L185" t="s" s="2">
+        <v>836</v>
+      </c>
+      <c r="M185" t="s" s="2">
         <v>837</v>
       </c>
-      <c r="L185" t="s" s="2">
+      <c r="N185" t="s" s="2">
         <v>838</v>
-      </c>
-      <c r="M185" t="s" s="2">
-        <v>839</v>
-      </c>
-      <c r="N185" t="s" s="2">
-        <v>840</v>
       </c>
       <c r="O185" s="2"/>
       <c r="P185" t="s" s="2">
@@ -25349,7 +25342,7 @@
         <v>82</v>
       </c>
       <c r="AF185" t="s" s="2">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="AG185" t="s" s="2">
         <v>80</v>
@@ -25367,7 +25360,7 @@
         <v>82</v>
       </c>
       <c r="AL185" t="s" s="2">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="AM185" t="s" s="2">
         <v>109</v>
@@ -25376,7 +25369,7 @@
         <v>82</v>
       </c>
       <c r="AO185" t="s" s="2">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="AP185" t="s" s="2">
         <v>82</v>
@@ -25384,10 +25377,10 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -25410,19 +25403,19 @@
         <v>92</v>
       </c>
       <c r="K186" t="s" s="2">
+        <v>842</v>
+      </c>
+      <c r="L186" t="s" s="2">
+        <v>843</v>
+      </c>
+      <c r="M186" t="s" s="2">
         <v>844</v>
       </c>
-      <c r="L186" t="s" s="2">
+      <c r="N186" t="s" s="2">
         <v>845</v>
       </c>
-      <c r="M186" t="s" s="2">
+      <c r="O186" t="s" s="2">
         <v>846</v>
-      </c>
-      <c r="N186" t="s" s="2">
-        <v>847</v>
-      </c>
-      <c r="O186" t="s" s="2">
-        <v>848</v>
       </c>
       <c r="P186" t="s" s="2">
         <v>82</v>
@@ -25471,7 +25464,7 @@
         <v>82</v>
       </c>
       <c r="AF186" t="s" s="2">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="AG186" t="s" s="2">
         <v>80</v>
@@ -25489,10 +25482,10 @@
         <v>82</v>
       </c>
       <c r="AL186" t="s" s="2">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="AM186" t="s" s="2">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="AN186" t="s" s="2">
         <v>82</v>
@@ -25506,10 +25499,10 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -25532,19 +25525,19 @@
         <v>92</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="L187" t="s" s="2">
+        <v>849</v>
+      </c>
+      <c r="M187" t="s" s="2">
+        <v>850</v>
+      </c>
+      <c r="N187" t="s" s="2">
         <v>851</v>
       </c>
-      <c r="M187" t="s" s="2">
+      <c r="O187" t="s" s="2">
         <v>852</v>
-      </c>
-      <c r="N187" t="s" s="2">
-        <v>853</v>
-      </c>
-      <c r="O187" t="s" s="2">
-        <v>854</v>
       </c>
       <c r="P187" t="s" s="2">
         <v>82</v>
@@ -25593,7 +25586,7 @@
         <v>82</v>
       </c>
       <c r="AF187" t="s" s="2">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="AG187" t="s" s="2">
         <v>80</v>
@@ -25611,7 +25604,7 @@
         <v>82</v>
       </c>
       <c r="AL187" t="s" s="2">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="AM187" t="s" s="2">
         <v>109</v>
@@ -25628,10 +25621,10 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" t="s" s="2">
@@ -25746,10 +25739,10 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -25866,14 +25859,14 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="E190" s="2"/>
       <c r="F190" t="s" s="2">
@@ -25895,10 +25888,10 @@
         <v>112</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="M190" t="s" s="2">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="N190" t="s" s="2">
         <v>115</v>
@@ -25953,7 +25946,7 @@
         <v>82</v>
       </c>
       <c r="AF190" t="s" s="2">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="AG190" t="s" s="2">
         <v>80</v>
@@ -25988,10 +25981,10 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
@@ -26014,16 +26007,16 @@
         <v>92</v>
       </c>
       <c r="K191" t="s" s="2">
+        <v>858</v>
+      </c>
+      <c r="L191" t="s" s="2">
+        <v>859</v>
+      </c>
+      <c r="M191" t="s" s="2">
         <v>860</v>
       </c>
-      <c r="L191" t="s" s="2">
+      <c r="N191" t="s" s="2">
         <v>861</v>
-      </c>
-      <c r="M191" t="s" s="2">
-        <v>862</v>
-      </c>
-      <c r="N191" t="s" s="2">
-        <v>863</v>
       </c>
       <c r="O191" s="2"/>
       <c r="P191" t="s" s="2">
@@ -26073,7 +26066,7 @@
         <v>82</v>
       </c>
       <c r="AF191" t="s" s="2">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="AG191" t="s" s="2">
         <v>91</v>
@@ -26100,7 +26093,7 @@
         <v>82</v>
       </c>
       <c r="AO191" t="s" s="2">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="AP191" t="s" s="2">
         <v>82</v>
@@ -26108,10 +26101,10 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -26137,10 +26130,10 @@
         <v>172</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="N192" s="2"/>
       <c r="O192" s="2"/>
@@ -26170,10 +26163,10 @@
         <v>263</v>
       </c>
       <c r="Y192" t="s" s="2">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="Z192" t="s" s="2">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="AA192" t="s" s="2">
         <v>82</v>
@@ -26191,7 +26184,7 @@
         <v>82</v>
       </c>
       <c r="AF192" t="s" s="2">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="AG192" t="s" s="2">
         <v>91</v>
@@ -26209,7 +26202,7 @@
         <v>82</v>
       </c>
       <c r="AL192" t="s" s="2">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="AM192" t="s" s="2">
         <v>109</v>
